--- a/data/sen/field_key_level1_egos_alters_2025-09-23_KEY.xlsx
+++ b/data/sen/field_key_level1_egos_alters_2025-09-23_KEY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucdavis365-my.sharepoint.com/personal/marfisher_ucdavis_edu/Documents/Documents/russian/data/sen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="14_{5B884252-FB73-4961-A52F-EB3FB2F4C66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04105B8F-DD94-44FA-81F8-B2CE5C8F9C8D}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="14_{5B884252-FB73-4961-A52F-EB3FB2F4C66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB3F5028-AF82-48B5-92A3-AFA0B8D2FA16}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="field_key_level1_egos_alters_20" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="275">
   <si>
     <t>sn_org_name</t>
   </si>
@@ -861,6 +861,9 @@
   </si>
   <si>
     <t>University of Southern California</t>
+  </si>
+  <si>
+    <t>specific to individual respondent - cultural use</t>
   </si>
 </sst>
 </file>
@@ -1704,8 +1707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K228"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="I195" sqref="I195"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3141,7 +3144,10 @@
         <v>15</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>274</v>
       </c>
       <c r="I54" t="s">
         <v>21</v>
@@ -7410,8 +7416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A498FB0-EDE2-4386-B3D1-F3131B074870}">
   <dimension ref="A1:B138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="G143" sqref="G143"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7824,7 +7830,7 @@
         <v>84</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
